--- a/output_images/Clinical/PARADIGM_WSI_SAMPLE_Tnummer_Bloknummer.xlsx
+++ b/output_images/Clinical/PARADIGM_WSI_SAMPLE_Tnummer_Bloknummer.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t xml:space="preserve">T.nummer</t>
   </si>
@@ -20,376 +20,493 @@
     <t xml:space="preserve">Bloknummer</t>
   </si>
   <si>
-    <t xml:space="preserve">T89-06014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-60962</t>
+    <t xml:space="preserve">PALGA.nummer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMA.nummer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMA.redone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-60939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15-60084/A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-60298</t>
   </si>
   <si>
     <t xml:space="preserve">A2</t>
   </si>
   <si>
-    <t xml:space="preserve">T13-61348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T89-02668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-60552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-61664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-60059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-60337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-60880</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-60203</t>
+    <t xml:space="preserve">T15-60098/A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-62064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15-60088/A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-61145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15-60082/A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-62647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15-60089/A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-60046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15-60080/A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-60649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15-60094/A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-60780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-60150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15-60069/A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-60866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15-60086/A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-60345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15-60070/A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-60576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T16-60009/A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-60821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15-60079/A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-61372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15-60076/A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-60198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15-60085/A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-60693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-61865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-62463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15-60083/A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-60658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-61013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15-60090/A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-60578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15-60092/A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-61635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-61149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15-60068/A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-61302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-62503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15-60073/A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-62189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15-60067/A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-60861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15-60099/A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-61911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-60868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-60665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-60764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15-60096/A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-62480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15-60071/A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-61947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-62527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15-60072/A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-60461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-60361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T16-60007/A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-61234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T16-60006/A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-62601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15-60091/A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-60878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15-60077/A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-62540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-60897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15-60095/A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T93-04272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-60208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T16-60008/A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-60464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T97-03441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-60961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-60674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15-60093/A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-60306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-60420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15-60075/A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-60247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-62207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-60650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-60551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-60967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-60671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-61867</t>
   </si>
   <si>
     <t xml:space="preserve">A6</t>
   </si>
   <si>
-    <t xml:space="preserve">T96-08351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-60345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-62443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-61231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-61005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-60684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-60821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-61105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-60658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-61865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-60599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-61154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-61515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-61911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-60363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-61246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-62481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-60578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-61149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-61000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-62060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-60361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-60914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-60691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-62336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-62232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-61947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-62449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-60764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-62527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-60674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-60208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-60961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-60514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-61323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-60306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-60420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-60368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-60337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-60897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-61685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-60459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-62666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-60667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-60502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-61867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-61080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-60650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-60671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-60216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-61654</t>
+    <t xml:space="preserve">T15-60074/A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-61173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-60413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15-60097/A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-60121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15-60078/A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-60662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-60355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-60201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T00-08483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-61175</t>
   </si>
   <si>
     <t xml:space="preserve">T13-60768</t>
   </si>
   <si>
-    <t xml:space="preserve">T14-60500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T91-01469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-61062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-60322</t>
+    <t xml:space="preserve">T13-61574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-60948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-61268</t>
   </si>
   <si>
     <t xml:space="preserve">T13-62182</t>
   </si>
   <si>
-    <t xml:space="preserve">T13-60537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-60429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-60201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-61127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-60922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-60642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-62124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-62531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-61368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-62240</t>
+    <t xml:space="preserve">T91-08202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-61952</t>
   </si>
   <si>
     <t xml:space="preserve">T13-60403</t>
   </si>
   <si>
-    <t xml:space="preserve">T13-60219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-60983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-61207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-61567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-61627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-60971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-60069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-60365</t>
+    <t xml:space="preserve">T13-62651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-61062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-61357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-60656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-61005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-60675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-60412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-61073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15-60087/A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-61136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-60360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-60977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-61534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-60544</t>
   </si>
   <si>
     <t xml:space="preserve">T13-62198</t>
   </si>
   <si>
-    <t xml:space="preserve">T13-60157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-61322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-60575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-60494</t>
+    <t xml:space="preserve">T14-61092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-61402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-62268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-60354</t>
   </si>
   <si>
     <t xml:space="preserve">T14-60396</t>
   </si>
   <si>
-    <t xml:space="preserve">T14-60431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-60451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-62209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-60637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-61645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-62471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-61808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T98-10326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-62254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-60633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-61615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-61110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-62635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-61565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-61053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14-61933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-61457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T13-60604</t>
+    <t xml:space="preserve">T13-60998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-60967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-60020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-60156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-61946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-62152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-61321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-61461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-60202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-61208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-62568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-60978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-60526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-60923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-61011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13-60034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-60429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14-60206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T93-10961</t>
   </si>
 </sst>
 </file>
@@ -728,886 +845,1671 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>68011</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>64911</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>60041</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C5" t="n">
+        <v>51241</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C6" t="n">
+        <v>61981</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>56251</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C8" t="n">
+        <v>54801</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C9" t="n">
+        <v>58291</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>40421</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>59011</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>48271</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>62541</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C14" t="n">
+        <v>53351</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>44911</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>66731</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>64211</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>58471</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C19" t="n">
+        <v>60571</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C20" t="n">
+        <v>63191</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C21" t="n">
+        <v>53891</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C22" t="n">
+        <v>43661</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C23" t="n">
+        <v>37971</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C24" t="n">
+        <v>36721</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C25" t="n">
+        <v>48371</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C26" t="n">
+        <v>48461</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C27" t="n">
+        <v>38321</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C28" t="n">
+        <v>57561</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="n">
+        <v>44751</v>
+      </c>
+      <c r="D29" t="s">
         <v>35</v>
       </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
+      <c r="E29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C30" t="n">
+        <v>56691</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C31" t="n">
+        <v>63391</v>
+      </c>
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C32" t="n">
+        <v>68671</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C33" t="n">
+        <v>47261</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C34" t="n">
+        <v>48941</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C35" t="n">
+        <v>49491</v>
+      </c>
+      <c r="D35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C36" t="n">
+        <v>36401</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C37" t="n">
+        <v>56011</v>
+      </c>
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C38" t="n">
+        <v>51631</v>
+      </c>
+      <c r="D38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C39" t="n">
+        <v>61581</v>
+      </c>
+      <c r="D39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C40" t="n">
+        <v>53171</v>
+      </c>
+      <c r="D40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C41" t="n">
+        <v>61001</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40981</v>
+      </c>
+      <c r="D42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C43" t="n">
+        <v>42261</v>
+      </c>
+      <c r="D43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C44" t="n">
+        <v>67081</v>
+      </c>
+      <c r="D44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C45" t="n">
+        <v>68711</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C46" t="n">
+        <v>42821</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C47" t="n">
+        <v>59971</v>
+      </c>
+      <c r="D47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C48" t="n">
+        <v>64111</v>
+      </c>
+      <c r="D48" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C49" t="n">
+        <v>49501</v>
+      </c>
+      <c r="D49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C50" t="n">
+        <v>35041</v>
+      </c>
+      <c r="D50" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C51" t="n">
+        <v>68821</v>
+      </c>
+      <c r="D51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C52" t="n">
+        <v>38921</v>
+      </c>
+      <c r="D52" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C53" t="n">
+        <v>62941</v>
+      </c>
+      <c r="D53" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C54" t="n">
+        <v>60601</v>
+      </c>
+      <c r="D54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C55" t="n">
+        <v>60421</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C56" t="n">
+        <v>63821</v>
+      </c>
+      <c r="D56" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C57" t="n">
+        <v>52431</v>
+      </c>
+      <c r="D57" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C58" t="n">
+        <v>64811</v>
+      </c>
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C59" t="n">
+        <v>66831</v>
+      </c>
+      <c r="D59" t="s">
+        <v>108</v>
+      </c>
+      <c r="E59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C60" t="n">
+        <v>57971</v>
+      </c>
+      <c r="D60" t="s">
+        <v>110</v>
+      </c>
+      <c r="E60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C61" t="n">
+        <v>63271</v>
+      </c>
+      <c r="D61" t="s">
+        <v>108</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C62" t="n">
+        <v>55291</v>
+      </c>
+      <c r="D62" t="s">
+        <v>71</v>
+      </c>
+      <c r="E62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C63" t="n">
+        <v>58601</v>
+      </c>
+      <c r="D63" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C64" t="n">
+        <v>45461</v>
+      </c>
+      <c r="D64" t="s">
+        <v>110</v>
+      </c>
+      <c r="E64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C65" t="n">
+        <v>64961</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C66" t="n">
+        <v>68921</v>
+      </c>
+      <c r="D66" t="s">
+        <v>62</v>
+      </c>
+      <c r="E66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C67" t="n">
+        <v>58011</v>
+      </c>
+      <c r="D67" t="s">
+        <v>33</v>
+      </c>
+      <c r="E67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C68" t="n">
+        <v>46061</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C69" t="n">
+        <v>52611</v>
+      </c>
+      <c r="D69" t="s">
+        <v>73</v>
+      </c>
+      <c r="E69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C70" t="n">
+        <v>38211</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="B71" t="s">
-        <v>39</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C71" t="n">
+        <v>42521</v>
+      </c>
+      <c r="D71" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C72" t="n">
+        <v>49621</v>
+      </c>
+      <c r="D72" t="s">
+        <v>105</v>
+      </c>
+      <c r="E72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C73" t="n">
+        <v>66451</v>
+      </c>
+      <c r="D73" t="s">
+        <v>57</v>
+      </c>
+      <c r="E73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C74" t="n">
+        <v>62041</v>
+      </c>
+      <c r="D74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C75" t="n">
+        <v>50921</v>
+      </c>
+      <c r="D75" t="s">
+        <v>105</v>
+      </c>
+      <c r="E75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="B76" t="s">
-        <v>24</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C76" t="n">
+        <v>43541</v>
+      </c>
+      <c r="D76" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C77" t="n">
+        <v>55091</v>
+      </c>
+      <c r="D77" t="s">
+        <v>110</v>
+      </c>
+      <c r="E77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C78" t="n">
+        <v>49091</v>
+      </c>
+      <c r="D78" t="s">
+        <v>68</v>
+      </c>
+      <c r="E78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C79" t="n">
+        <v>61841</v>
+      </c>
+      <c r="D79" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="B80" t="s">
-        <v>93</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C80" t="n">
+        <v>34761</v>
+      </c>
+      <c r="D80" t="s">
+        <v>55</v>
+      </c>
+      <c r="E80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C81" t="n">
+        <v>61941</v>
+      </c>
+      <c r="D81" t="s">
+        <v>134</v>
+      </c>
+      <c r="E81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C82" t="n">
+        <v>50541</v>
+      </c>
+      <c r="D82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C83" t="n">
+        <v>55821</v>
+      </c>
+      <c r="D83" t="s">
+        <v>110</v>
+      </c>
+      <c r="E83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C84" t="n">
+        <v>46531</v>
+      </c>
+      <c r="D84" t="s">
+        <v>27</v>
+      </c>
+      <c r="E84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C85" t="n">
+        <v>35131</v>
+      </c>
+      <c r="D85" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C86" t="n">
+        <v>41311</v>
+      </c>
+      <c r="D86" t="s">
+        <v>62</v>
+      </c>
+      <c r="E86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C87" t="n">
+        <v>38741</v>
+      </c>
+      <c r="D87" t="s">
+        <v>62</v>
+      </c>
+      <c r="E87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C88" t="n">
+        <v>47381</v>
+      </c>
+      <c r="D88" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C89" t="n">
+        <v>51451</v>
+      </c>
+      <c r="D89" t="s">
+        <v>105</v>
+      </c>
+      <c r="E89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C90" t="n">
+        <v>39311</v>
+      </c>
+      <c r="D90" t="s">
+        <v>47</v>
+      </c>
+      <c r="E90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="B91" t="s">
-        <v>24</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C91" t="n">
+        <v>50351</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C92" t="n">
+        <v>58891</v>
+      </c>
+      <c r="D92" t="s">
+        <v>33</v>
+      </c>
+      <c r="E92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C93" t="n">
+        <v>52221</v>
+      </c>
+      <c r="D93" t="s">
+        <v>68</v>
+      </c>
+      <c r="E93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C94" t="n">
+        <v>46651</v>
+      </c>
+      <c r="D94" t="s">
+        <v>86</v>
+      </c>
+      <c r="E94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C95" t="n">
+        <v>46261</v>
+      </c>
+      <c r="D95" t="s">
+        <v>92</v>
+      </c>
+      <c r="E95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C96" t="n">
+        <v>41551</v>
+      </c>
+      <c r="D96" t="s">
+        <v>50</v>
+      </c>
+      <c r="E96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>150</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" t="n">
+        <v>48811</v>
+      </c>
+      <c r="D97" t="s">
         <v>110</v>
       </c>
-      <c r="B97" t="s">
-        <v>7</v>
-      </c>
+      <c r="E97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C98" t="n">
+        <v>37831</v>
+      </c>
+      <c r="D98" t="s">
+        <v>108</v>
+      </c>
+      <c r="E98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C99" t="n">
+        <v>50991</v>
+      </c>
+      <c r="D99" t="s">
+        <v>21</v>
+      </c>
+      <c r="E99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C100" t="n">
+        <v>53271</v>
+      </c>
+      <c r="D100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="B101" t="s">
-        <v>115</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C101" t="n">
+        <v>58621</v>
+      </c>
+      <c r="D101" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C102" t="n">
+        <v>65891</v>
+      </c>
+      <c r="D102" t="s">
+        <v>57</v>
+      </c>
+      <c r="E102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C103" t="n">
+        <v>50241</v>
+      </c>
+      <c r="D103" t="s">
+        <v>105</v>
+      </c>
+      <c r="E103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="B104" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C104" t="n">
+        <v>61091</v>
+      </c>
+      <c r="D104" t="s">
+        <v>71</v>
+      </c>
+      <c r="E104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C105" t="n">
+        <v>40031</v>
+      </c>
+      <c r="D105" t="s">
+        <v>50</v>
+      </c>
+      <c r="E105"/>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C106" t="n">
+        <v>44471</v>
+      </c>
+      <c r="D106" t="s">
+        <v>29</v>
+      </c>
+      <c r="E106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C107" t="n">
+        <v>53741</v>
+      </c>
+      <c r="D107" t="s">
+        <v>21</v>
+      </c>
+      <c r="E107"/>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C108" t="n">
+        <v>55581</v>
+      </c>
+      <c r="D108" t="s">
+        <v>33</v>
+      </c>
+      <c r="E108"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C109" t="n">
+        <v>35281</v>
+      </c>
+      <c r="D109" t="s">
+        <v>55</v>
+      </c>
+      <c r="E109"/>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C110" t="n">
+        <v>58991</v>
+      </c>
+      <c r="D110" t="s">
+        <v>27</v>
+      </c>
+      <c r="E110"/>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>125</v>
-      </c>
-      <c r="B111" t="s">
-        <v>5</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B111"/>
+      <c r="C111" t="n">
+        <v>43171</v>
+      </c>
+      <c r="D111" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
